--- a/Misc/2023학년도 2학기 캡스톤디자인 조 편성표(배포용).xlsx
+++ b/Misc/2023학년도 2학기 캡스톤디자인 조 편성표(배포용).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldr\Desktop\2023-02\[CSE4205] 컴퓨터공학 종합설계\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBC36FC-EAAB-479B-A6DB-C2B5CFCF1099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D28AE4-B184-419B-8472-40F51C089D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3480,22 +3480,115 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3507,104 +3600,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3966,7 +3966,7 @@
   <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B75" sqref="B75:B77"/>
@@ -3988,18 +3988,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="67" t="s">
         <v>735</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="32.15" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -4034,10 +4034,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="58" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="25">
@@ -4052,22 +4052,22 @@
       <c r="F3" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="59" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="22">
         <v>12183305</v>
       </c>
@@ -4080,14 +4080,14 @@
       <c r="F4" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="87"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="22">
         <v>12181693</v>
       </c>
@@ -4100,14 +4100,14 @@
       <c r="F5" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="87"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="25">
@@ -4122,22 +4122,22 @@
       <c r="F6" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="59" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="22">
         <v>12171682</v>
       </c>
@@ -4150,14 +4150,14 @@
       <c r="F7" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="87"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="22">
         <v>12181717</v>
       </c>
@@ -4170,14 +4170,14 @@
       <c r="F8" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="87"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="58" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="25">
@@ -4192,22 +4192,22 @@
       <c r="F9" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="59" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="22">
         <v>12181567</v>
       </c>
@@ -4220,14 +4220,14 @@
       <c r="F10" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="87"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="22">
         <v>12182758</v>
       </c>
@@ -4240,14 +4240,14 @@
       <c r="F11" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="87"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="78" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="58" t="s">
         <v>215</v>
       </c>
       <c r="C12" s="25">
@@ -4262,22 +4262,22 @@
       <c r="F12" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="59" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="22">
         <v>12181633</v>
       </c>
@@ -4290,14 +4290,14 @@
       <c r="F13" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="87"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="22">
         <v>12161667</v>
       </c>
@@ -4310,14 +4310,14 @@
       <c r="F14" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="87"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="58" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="25">
@@ -4332,22 +4332,22 @@
       <c r="F15" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="62" t="s">
         <v>521</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="59" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="22">
         <v>12171692</v>
       </c>
@@ -4360,14 +4360,14 @@
       <c r="F16" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="87"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="22">
         <v>12162997</v>
       </c>
@@ -4380,14 +4380,14 @@
       <c r="F17" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="87"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="58" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="25">
@@ -4402,22 +4402,22 @@
       <c r="F18" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="62" t="s">
         <v>521</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="59" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="22">
         <v>12181558</v>
       </c>
@@ -4430,14 +4430,14 @@
       <c r="F19" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="87"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="22">
         <v>12191685</v>
       </c>
@@ -4450,14 +4450,14 @@
       <c r="F20" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="87"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="58" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="25">
@@ -4472,22 +4472,22 @@
       <c r="F21" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="62" t="s">
         <v>521</v>
       </c>
-      <c r="I21" s="79" t="s">
+      <c r="I21" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="J21" s="86" t="s">
+      <c r="J21" s="59" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="22">
         <v>12201752</v>
       </c>
@@ -4500,14 +4500,14 @@
       <c r="F22" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="87"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="22">
         <v>12193452</v>
       </c>
@@ -4520,14 +4520,14 @@
       <c r="F23" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="87"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="58" t="s">
         <v>251</v>
       </c>
       <c r="C24" s="25">
@@ -4542,22 +4542,22 @@
       <c r="F24" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="62" t="s">
         <v>521</v>
       </c>
-      <c r="I24" s="79" t="s">
+      <c r="I24" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="J24" s="86" t="s">
+      <c r="J24" s="59" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A25" s="81"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="22">
         <v>12171702</v>
       </c>
@@ -4570,14 +4570,14 @@
       <c r="F25" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="87"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="22">
         <v>12171659</v>
       </c>
@@ -4590,14 +4590,14 @@
       <c r="F26" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="87"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="58" t="s">
         <v>256</v>
       </c>
       <c r="C27" s="25">
@@ -4612,22 +4612,22 @@
       <c r="F27" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="62" t="s">
         <v>521</v>
       </c>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="59" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A28" s="81"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="22">
         <v>12181612</v>
       </c>
@@ -4640,14 +4640,14 @@
       <c r="F28" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="87"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="36">
         <v>12151370</v>
       </c>
@@ -4660,16 +4660,16 @@
       <c r="F29" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="88"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" ht="17.5" customHeight="1" thickTop="1">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="57" t="s">
         <v>262</v>
       </c>
       <c r="C30" s="41">
@@ -4684,22 +4684,22 @@
       <c r="F30" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="65" t="s">
         <v>522</v>
       </c>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="64" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="22">
         <v>12181694</v>
       </c>
@@ -4712,14 +4712,14 @@
       <c r="F31" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="87"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="22">
         <v>12181665</v>
       </c>
@@ -4732,14 +4732,14 @@
       <c r="F32" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="87"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="58" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="25">
@@ -4754,22 +4754,22 @@
       <c r="F33" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="H33" s="79" t="s">
+      <c r="H33" s="62" t="s">
         <v>522</v>
       </c>
-      <c r="I33" s="79" t="s">
+      <c r="I33" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="59" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="22">
         <v>12181583</v>
       </c>
@@ -4782,14 +4782,14 @@
       <c r="F34" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="87"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="22">
         <v>12181660</v>
       </c>
@@ -4802,14 +4802,14 @@
       <c r="F35" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="87"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="58" t="s">
         <v>267</v>
       </c>
       <c r="C36" s="25">
@@ -4824,22 +4824,22 @@
       <c r="F36" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="G36" s="79" t="s">
+      <c r="G36" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="62" t="s">
         <v>522</v>
       </c>
-      <c r="I36" s="79" t="s">
+      <c r="I36" s="62" t="s">
         <v>534</v>
       </c>
-      <c r="J36" s="87" t="s">
+      <c r="J36" s="60" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="22">
         <v>12181699</v>
       </c>
@@ -4852,14 +4852,14 @@
       <c r="F37" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="87"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A38" s="81"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="58" t="s">
         <v>268</v>
       </c>
       <c r="C38" s="25">
@@ -4874,22 +4874,22 @@
       <c r="F38" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="70" t="s">
         <v>512</v>
       </c>
-      <c r="H38" s="55" t="s">
+      <c r="H38" s="70" t="s">
         <v>522</v>
       </c>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="78" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="22">
         <v>12193497</v>
       </c>
@@ -4902,14 +4902,14 @@
       <c r="F39" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="53"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="79"/>
     </row>
     <row r="40" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="22">
         <v>12201793</v>
       </c>
@@ -4922,14 +4922,14 @@
       <c r="F40" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="54"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="80"/>
     </row>
     <row r="41" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="78" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="58" t="s">
         <v>269</v>
       </c>
       <c r="C41" s="25">
@@ -4944,22 +4944,22 @@
       <c r="F41" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="70" t="s">
         <v>512</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="70" t="s">
         <v>522</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="78" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="16">
         <v>12195304</v>
       </c>
@@ -4972,14 +4972,14 @@
       <c r="F42" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="53"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="79"/>
     </row>
     <row r="43" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A43" s="81"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="17">
         <v>12203708</v>
       </c>
@@ -4992,14 +4992,14 @@
       <c r="F43" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="54"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="80"/>
     </row>
     <row r="44" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A44" s="81"/>
-      <c r="B44" s="78" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="58" t="s">
         <v>270</v>
       </c>
       <c r="C44" s="30">
@@ -5014,22 +5014,22 @@
       <c r="F44" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="H44" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="J44" s="52" t="s">
+      <c r="J44" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A45" s="81"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="17">
         <v>12171611</v>
       </c>
@@ -5042,14 +5042,14 @@
       <c r="F45" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="53"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="79"/>
     </row>
     <row r="46" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A46" s="81"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="17">
         <v>12191604</v>
       </c>
@@ -5062,14 +5062,14 @@
       <c r="F46" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="54"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="80"/>
     </row>
     <row r="47" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A47" s="81"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="56" t="s">
         <v>271</v>
       </c>
       <c r="C47" s="30">
@@ -5084,22 +5084,22 @@
       <c r="F47" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="J47" s="52" t="s">
+      <c r="J47" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A48" s="81"/>
-      <c r="B48" s="73"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="17">
         <v>12181711</v>
       </c>
@@ -5112,14 +5112,14 @@
       <c r="F48" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="53"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A49" s="81"/>
-      <c r="B49" s="73"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="17">
         <v>12181575</v>
       </c>
@@ -5132,14 +5132,14 @@
       <c r="F49" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="54"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="80"/>
     </row>
     <row r="50" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A50" s="81"/>
-      <c r="B50" s="73" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="56" t="s">
         <v>272</v>
       </c>
       <c r="C50" s="30">
@@ -5154,22 +5154,22 @@
       <c r="F50" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I50" s="55" t="s">
+      <c r="I50" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="J50" s="52" t="s">
+      <c r="J50" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A51" s="81"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="17">
         <v>12161581</v>
       </c>
@@ -5182,14 +5182,14 @@
       <c r="F51" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="53"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="79"/>
     </row>
     <row r="52" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A52" s="81"/>
-      <c r="B52" s="73"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="17">
         <v>12181811</v>
       </c>
@@ -5202,14 +5202,14 @@
       <c r="F52" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="54"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="80"/>
     </row>
     <row r="53" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A53" s="81"/>
-      <c r="B53" s="73" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="56" t="s">
         <v>273</v>
       </c>
       <c r="C53" s="30">
@@ -5224,22 +5224,22 @@
       <c r="F53" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="55" t="s">
+      <c r="H53" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="J53" s="52" t="s">
+      <c r="J53" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A54" s="81"/>
-      <c r="B54" s="73"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="17">
         <v>12171636</v>
       </c>
@@ -5252,14 +5252,14 @@
       <c r="F54" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="53"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="79"/>
     </row>
     <row r="55" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A55" s="81"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="17">
         <v>12200965</v>
       </c>
@@ -5272,14 +5272,14 @@
       <c r="F55" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="54"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="80"/>
     </row>
     <row r="56" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A56" s="81"/>
-      <c r="B56" s="73" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="56" t="s">
         <v>274</v>
       </c>
       <c r="C56" s="30">
@@ -5294,22 +5294,22 @@
       <c r="F56" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H56" s="55" t="s">
+      <c r="H56" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I56" s="55" t="s">
+      <c r="I56" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="J56" s="52" t="s">
+      <c r="J56" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A57" s="81"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="17">
         <v>12181686</v>
       </c>
@@ -5322,14 +5322,14 @@
       <c r="F57" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="53"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="79"/>
     </row>
     <row r="58" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A58" s="81"/>
-      <c r="B58" s="73"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="17">
         <v>12152960</v>
       </c>
@@ -5342,14 +5342,14 @@
       <c r="F58" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="54"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="80"/>
     </row>
     <row r="59" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A59" s="81"/>
-      <c r="B59" s="73" t="s">
+      <c r="A59" s="53"/>
+      <c r="B59" s="56" t="s">
         <v>275</v>
       </c>
       <c r="C59" s="30">
@@ -5364,22 +5364,22 @@
       <c r="F59" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="I59" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="J59" s="52" t="s">
+      <c r="J59" s="83" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="73"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="24">
         <v>12181586</v>
       </c>
@@ -5392,14 +5392,14 @@
       <c r="F60" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="53"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="79"/>
     </row>
     <row r="61" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A61" s="82"/>
-      <c r="B61" s="76"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="44">
         <v>12181719</v>
       </c>
@@ -5412,16 +5412,16 @@
       <c r="F61" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="64"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="84"/>
     </row>
     <row r="62" spans="1:10" ht="17.5" customHeight="1" thickTop="1">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="55" t="s">
         <v>305</v>
       </c>
       <c r="C62" s="41">
@@ -5436,22 +5436,22 @@
       <c r="F62" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="86" t="s">
         <v>514</v>
       </c>
-      <c r="H62" s="70" t="s">
+      <c r="H62" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="I62" s="70" t="s">
+      <c r="I62" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="J62" s="69" t="s">
+      <c r="J62" s="85" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="24">
         <v>12181653</v>
       </c>
@@ -5464,14 +5464,14 @@
       <c r="F63" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
     </row>
     <row r="64" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="24">
         <v>12171679</v>
       </c>
@@ -5484,14 +5484,14 @@
       <c r="F64" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
     </row>
     <row r="65" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73" t="s">
+      <c r="A65" s="56"/>
+      <c r="B65" s="56" t="s">
         <v>306</v>
       </c>
       <c r="C65" s="29">
@@ -5506,22 +5506,22 @@
       <c r="F65" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="H65" s="68" t="s">
+      <c r="H65" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="I65" s="68" t="s">
+      <c r="I65" s="73" t="s">
         <v>539</v>
       </c>
-      <c r="J65" s="65" t="s">
+      <c r="J65" s="81" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="24">
         <v>12181636</v>
       </c>
@@ -5534,14 +5534,14 @@
       <c r="F66" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="24">
         <v>12181671</v>
       </c>
@@ -5554,14 +5554,14 @@
       <c r="F67" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
     </row>
     <row r="68" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73" t="s">
+      <c r="A68" s="56"/>
+      <c r="B68" s="56" t="s">
         <v>307</v>
       </c>
       <c r="C68" s="29">
@@ -5576,22 +5576,22 @@
       <c r="F68" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="G68" s="68" t="s">
+      <c r="G68" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="H68" s="68" t="s">
+      <c r="H68" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="I68" s="68" t="s">
+      <c r="I68" s="73" t="s">
         <v>538</v>
       </c>
-      <c r="J68" s="65" t="s">
+      <c r="J68" s="81" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="24">
         <v>12181171</v>
       </c>
@@ -5604,14 +5604,14 @@
       <c r="F69" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
     </row>
     <row r="70" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="24">
         <v>12201679</v>
       </c>
@@ -5624,14 +5624,14 @@
       <c r="F70" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
     </row>
     <row r="71" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="24">
         <v>12181680</v>
       </c>
@@ -5644,14 +5644,14 @@
       <c r="F71" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
     </row>
     <row r="72" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73" t="s">
+      <c r="A72" s="56"/>
+      <c r="B72" s="56" t="s">
         <v>309</v>
       </c>
       <c r="C72" s="29">
@@ -5666,22 +5666,22 @@
       <c r="F72" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="G72" s="68" t="s">
+      <c r="G72" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="H72" s="68" t="s">
+      <c r="H72" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="I72" s="68" t="s">
+      <c r="I72" s="73" t="s">
         <v>538</v>
       </c>
-      <c r="J72" s="65" t="s">
+      <c r="J72" s="81" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="24">
         <v>12181622</v>
       </c>
@@ -5694,14 +5694,14 @@
       <c r="F73" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
     </row>
     <row r="74" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="24">
         <v>12151389</v>
       </c>
@@ -5714,13 +5714,13 @@
       <c r="F74" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
     </row>
     <row r="75" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="96" t="s">
         <v>308</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="96"/>
       <c r="C76" s="102">
         <v>12181662</v>
@@ -5770,7 +5770,7 @@
       <c r="J76" s="105"/>
     </row>
     <row r="77" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A77" s="73"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="96"/>
       <c r="C77" s="102">
         <v>12181584</v>
@@ -5790,8 +5790,8 @@
       <c r="J77" s="106"/>
     </row>
     <row r="78" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73" t="s">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56" t="s">
         <v>310</v>
       </c>
       <c r="C78" s="29">
@@ -5806,22 +5806,22 @@
       <c r="F78" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="G78" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="H78" s="68" t="s">
+      <c r="H78" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I78" s="68" t="s">
+      <c r="I78" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="24">
         <v>12181659</v>
       </c>
@@ -5834,14 +5834,14 @@
       <c r="F79" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
     </row>
     <row r="80" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="24">
         <v>12181650</v>
       </c>
@@ -5854,14 +5854,14 @@
       <c r="F80" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
     </row>
     <row r="81" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="56" t="s">
         <v>311</v>
       </c>
       <c r="C81" s="29">
@@ -5876,22 +5876,22 @@
       <c r="F81" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="G81" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="H81" s="68" t="s">
+      <c r="H81" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I81" s="68" t="s">
+      <c r="I81" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="J81" s="65" t="s">
+      <c r="J81" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="73"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="22">
         <v>12181580</v>
       </c>
@@ -5904,14 +5904,14 @@
       <c r="F82" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
     </row>
     <row r="83" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="22">
         <v>12205046</v>
       </c>
@@ -5924,14 +5924,14 @@
       <c r="F83" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
     </row>
     <row r="84" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A84" s="73"/>
-      <c r="B84" s="73" t="s">
+      <c r="A84" s="56"/>
+      <c r="B84" s="56" t="s">
         <v>312</v>
       </c>
       <c r="C84" s="25">
@@ -5946,22 +5946,22 @@
       <c r="F84" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="G84" s="68" t="s">
+      <c r="G84" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="H84" s="68" t="s">
+      <c r="H84" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I84" s="68" t="s">
+      <c r="I84" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="J84" s="65" t="s">
+      <c r="J84" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="73"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="22">
         <v>12181615</v>
       </c>
@@ -5974,14 +5974,14 @@
       <c r="F85" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
     </row>
     <row r="86" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="73"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="22">
         <v>12191641</v>
       </c>
@@ -5994,14 +5994,14 @@
       <c r="F86" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
     </row>
     <row r="87" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="16">
         <v>12193381</v>
       </c>
@@ -6014,14 +6014,14 @@
       <c r="F87" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
     </row>
     <row r="88" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="78" t="s">
+      <c r="A88" s="56"/>
+      <c r="B88" s="58" t="s">
         <v>313</v>
       </c>
       <c r="C88" s="30">
@@ -6036,22 +6036,22 @@
       <c r="F88" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="70" t="s">
         <v>515</v>
       </c>
-      <c r="H88" s="68" t="s">
+      <c r="H88" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I88" s="68" t="s">
+      <c r="I88" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="J88" s="65" t="s">
+      <c r="J88" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="17">
         <v>12181561</v>
       </c>
@@ -6064,14 +6064,14 @@
       <c r="F89" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
     </row>
     <row r="90" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="78"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="58"/>
       <c r="C90" s="17">
         <v>12193238</v>
       </c>
@@ -6084,14 +6084,14 @@
       <c r="F90" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="G90" s="57"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
     </row>
     <row r="91" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="B91" s="78" t="s">
+      <c r="A91" s="56"/>
+      <c r="B91" s="58" t="s">
         <v>314</v>
       </c>
       <c r="C91" s="30">
@@ -6106,22 +6106,22 @@
       <c r="F91" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G91" s="70" t="s">
         <v>515</v>
       </c>
-      <c r="H91" s="68" t="s">
+      <c r="H91" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I91" s="68" t="s">
+      <c r="I91" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="J91" s="65" t="s">
+      <c r="J91" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A92" s="73"/>
-      <c r="B92" s="78"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="17">
         <v>12201816</v>
       </c>
@@ -6134,14 +6134,14 @@
       <c r="F92" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
     </row>
     <row r="93" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A93" s="73"/>
-      <c r="B93" s="78"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="17">
         <v>12201717</v>
       </c>
@@ -6154,14 +6154,14 @@
       <c r="F93" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="G93" s="57"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A94" s="73"/>
-      <c r="B94" s="73" t="s">
+      <c r="A94" s="56"/>
+      <c r="B94" s="56" t="s">
         <v>659</v>
       </c>
       <c r="C94" s="30">
@@ -6176,22 +6176,22 @@
       <c r="F94" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="70" t="s">
         <v>515</v>
       </c>
-      <c r="H94" s="68" t="s">
+      <c r="H94" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="I94" s="68" t="s">
+      <c r="I94" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="J94" s="65" t="s">
+      <c r="J94" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A95" s="73"/>
-      <c r="B95" s="73"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="17">
         <v>12181627</v>
       </c>
@@ -6204,14 +6204,14 @@
       <c r="F95" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="G95" s="56"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="74"/>
     </row>
     <row r="96" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A96" s="76"/>
-      <c r="B96" s="76"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="39">
         <v>12171638</v>
       </c>
@@ -6224,16 +6224,16 @@
       <c r="F96" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
     </row>
     <row r="97" spans="1:10" ht="17.5" customHeight="1" thickTop="1">
-      <c r="A97" s="80" t="s">
+      <c r="A97" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="75" t="s">
         <v>351</v>
       </c>
       <c r="C97" s="38">
@@ -6248,22 +6248,22 @@
       <c r="F97" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="G97" s="56" t="s">
+      <c r="G97" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="H97" s="56" t="s">
+      <c r="H97" s="71" t="s">
         <v>525</v>
       </c>
-      <c r="I97" s="56" t="s">
+      <c r="I97" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="J97" s="75" t="s">
+      <c r="J97" s="82" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="73"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="17">
         <v>12171617</v>
       </c>
@@ -6276,14 +6276,14 @@
       <c r="F98" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="53"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="79"/>
     </row>
     <row r="99" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A99" s="73"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="17">
         <v>12181690</v>
       </c>
@@ -6296,14 +6296,14 @@
       <c r="F99" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="54"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="80"/>
     </row>
     <row r="100" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73" t="s">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56" t="s">
         <v>359</v>
       </c>
       <c r="C100" s="30">
@@ -6318,22 +6318,22 @@
       <c r="F100" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="H100" s="55" t="s">
+      <c r="H100" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="I100" s="55" t="s">
+      <c r="I100" s="70" t="s">
         <v>560</v>
       </c>
-      <c r="J100" s="52" t="s">
+      <c r="J100" s="83" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A101" s="73"/>
-      <c r="B101" s="73"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="17">
         <v>12200500</v>
       </c>
@@ -6346,14 +6346,14 @@
       <c r="F101" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="53"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="79"/>
     </row>
     <row r="102" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="17">
         <v>12201837</v>
       </c>
@@ -6366,14 +6366,14 @@
       <c r="F102" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="54"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="80"/>
     </row>
     <row r="103" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73" t="s">
+      <c r="A103" s="56"/>
+      <c r="B103" s="56" t="s">
         <v>360</v>
       </c>
       <c r="C103" s="30">
@@ -6388,22 +6388,22 @@
       <c r="F103" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G103" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="H103" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="I103" s="55" t="s">
+      <c r="I103" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="J103" s="52" t="s">
+      <c r="J103" s="83" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="17">
         <v>12171644</v>
       </c>
@@ -6416,14 +6416,14 @@
       <c r="F104" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="53"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="79"/>
     </row>
     <row r="105" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="17">
         <v>12171684</v>
       </c>
@@ -6436,14 +6436,14 @@
       <c r="F105" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="54"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="80"/>
     </row>
     <row r="106" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73" t="s">
+      <c r="A106" s="56"/>
+      <c r="B106" s="56" t="s">
         <v>678</v>
       </c>
       <c r="C106" s="30">
@@ -6458,22 +6458,22 @@
       <c r="F106" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="G106" s="55" t="s">
+      <c r="G106" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="H106" s="55" t="s">
+      <c r="H106" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="I106" s="55" t="s">
+      <c r="I106" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="J106" s="52" t="s">
+      <c r="J106" s="83" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="17">
         <v>12181679</v>
       </c>
@@ -6486,14 +6486,14 @@
       <c r="F107" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="53"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="79"/>
     </row>
     <row r="108" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A108" s="73"/>
-      <c r="B108" s="73"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="17">
         <v>12183361</v>
       </c>
@@ -6506,14 +6506,14 @@
       <c r="F108" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="54"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="80"/>
     </row>
     <row r="109" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="B109" s="73" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56" t="s">
         <v>605</v>
       </c>
       <c r="C109" s="30">
@@ -6528,22 +6528,22 @@
       <c r="F109" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="G109" s="55" t="s">
+      <c r="G109" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="H109" s="55" t="s">
+      <c r="H109" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="I109" s="55" t="s">
+      <c r="I109" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="J109" s="52" t="s">
+      <c r="J109" s="83" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="17">
         <v>12181688</v>
       </c>
@@ -6556,14 +6556,14 @@
       <c r="F110" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="53"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="79"/>
     </row>
     <row r="111" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="17">
         <v>12181702</v>
       </c>
@@ -6576,14 +6576,14 @@
       <c r="F111" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="54"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="80"/>
     </row>
     <row r="112" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73" t="s">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56" t="s">
         <v>656</v>
       </c>
       <c r="C112" s="30">
@@ -6598,22 +6598,22 @@
       <c r="F112" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="G112" s="55" t="s">
+      <c r="G112" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="H112" s="55" t="s">
+      <c r="H112" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="I112" s="55" t="s">
+      <c r="I112" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="J112" s="52" t="s">
+      <c r="J112" s="83" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="17">
         <v>12181605</v>
       </c>
@@ -6626,14 +6626,14 @@
       <c r="F113" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="53"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="79"/>
     </row>
     <row r="114" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="17">
         <v>12181691</v>
       </c>
@@ -6646,14 +6646,14 @@
       <c r="F114" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="54"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="80"/>
     </row>
     <row r="115" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73" t="s">
+      <c r="A115" s="56"/>
+      <c r="B115" s="56" t="s">
         <v>601</v>
       </c>
       <c r="C115" s="30">
@@ -6668,22 +6668,22 @@
       <c r="F115" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="H115" s="55" t="s">
+      <c r="H115" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="I115" s="55" t="s">
+      <c r="I115" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="J115" s="52" t="s">
+      <c r="J115" s="83" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="17">
         <v>12200198</v>
       </c>
@@ -6696,14 +6696,14 @@
       <c r="F116" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="53"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="79"/>
     </row>
     <row r="117" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
       <c r="C117" s="17">
         <v>12203143</v>
       </c>
@@ -6716,14 +6716,14 @@
       <c r="F117" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="54"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="80"/>
     </row>
     <row r="118" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73" t="s">
+      <c r="A118" s="56"/>
+      <c r="B118" s="56" t="s">
         <v>685</v>
       </c>
       <c r="C118" s="30">
@@ -6738,22 +6738,22 @@
       <c r="F118" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="H118" s="55" t="s">
+      <c r="H118" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="I118" s="55" t="s">
+      <c r="I118" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="J118" s="52" t="s">
+      <c r="J118" s="83" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A119" s="73"/>
-      <c r="B119" s="73"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="56"/>
       <c r="C119" s="17">
         <v>12173572</v>
       </c>
@@ -6766,14 +6766,14 @@
       <c r="F119" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="53"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="79"/>
     </row>
     <row r="120" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="69"/>
       <c r="C120" s="39">
         <v>12205183</v>
       </c>
@@ -6786,16 +6786,16 @@
       <c r="F120" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="64"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="84"/>
     </row>
     <row r="121" spans="1:10" ht="17.5" customHeight="1" thickTop="1">
-      <c r="A121" s="77" t="s">
+      <c r="A121" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="55" t="s">
         <v>379</v>
       </c>
       <c r="C121" s="49">
@@ -6810,22 +6810,22 @@
       <c r="F121" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="G121" s="63" t="s">
+      <c r="G121" s="88" t="s">
         <v>517</v>
       </c>
-      <c r="H121" s="63" t="s">
+      <c r="H121" s="88" t="s">
         <v>527</v>
       </c>
-      <c r="I121" s="63" t="s">
+      <c r="I121" s="88" t="s">
         <v>562</v>
       </c>
-      <c r="J121" s="62" t="s">
+      <c r="J121" s="87" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A122" s="73"/>
-      <c r="B122" s="73"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="56"/>
       <c r="C122" s="17">
         <v>12201835</v>
       </c>
@@ -6838,14 +6838,14 @@
       <c r="F122" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="53"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="79"/>
     </row>
     <row r="123" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A123" s="73"/>
-      <c r="B123" s="73"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="56"/>
       <c r="C123" s="17">
         <v>12201831</v>
       </c>
@@ -6858,14 +6858,14 @@
       <c r="F123" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="54"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="80"/>
     </row>
     <row r="124" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A124" s="73"/>
-      <c r="B124" s="73" t="s">
+      <c r="A124" s="56"/>
+      <c r="B124" s="56" t="s">
         <v>380</v>
       </c>
       <c r="C124" s="30">
@@ -6880,22 +6880,22 @@
       <c r="F124" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="G124" s="55" t="s">
+      <c r="G124" s="70" t="s">
         <v>517</v>
       </c>
-      <c r="H124" s="55" t="s">
+      <c r="H124" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="I124" s="55" t="s">
+      <c r="I124" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="J124" s="52" t="s">
+      <c r="J124" s="83" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A125" s="73"/>
-      <c r="B125" s="73"/>
+      <c r="A125" s="56"/>
+      <c r="B125" s="56"/>
       <c r="C125" s="17">
         <v>12181581</v>
       </c>
@@ -6908,14 +6908,14 @@
       <c r="F125" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="53"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="79"/>
     </row>
     <row r="126" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A126" s="73"/>
-      <c r="B126" s="73"/>
+      <c r="A126" s="56"/>
+      <c r="B126" s="56"/>
       <c r="C126" s="17">
         <v>12191714</v>
       </c>
@@ -6928,14 +6928,14 @@
       <c r="F126" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="54"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="80"/>
     </row>
     <row r="127" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A127" s="73"/>
-      <c r="B127" s="73">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56">
         <v>247</v>
       </c>
       <c r="C127" s="30">
@@ -6950,22 +6950,22 @@
       <c r="F127" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="70" t="s">
         <v>517</v>
       </c>
-      <c r="H127" s="55" t="s">
+      <c r="H127" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="I127" s="55" t="s">
+      <c r="I127" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="J127" s="52" t="s">
+      <c r="J127" s="83" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A128" s="73"/>
-      <c r="B128" s="73"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="56"/>
       <c r="C128" s="17">
         <v>12191605</v>
       </c>
@@ -6978,14 +6978,14 @@
       <c r="F128" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="G128" s="56"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="53"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="79"/>
     </row>
     <row r="129" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A129" s="73"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="56"/>
       <c r="C129" s="17">
         <v>12191699</v>
       </c>
@@ -6998,14 +6998,14 @@
       <c r="F129" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="G129" s="57"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="57"/>
-      <c r="J129" s="54"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="80"/>
     </row>
     <row r="130" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A130" s="73"/>
-      <c r="B130" s="73" t="s">
+      <c r="A130" s="56"/>
+      <c r="B130" s="56" t="s">
         <v>381</v>
       </c>
       <c r="C130" s="30">
@@ -7020,22 +7020,22 @@
       <c r="F130" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="G130" s="55" t="s">
+      <c r="G130" s="70" t="s">
         <v>517</v>
       </c>
-      <c r="H130" s="55" t="s">
+      <c r="H130" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="I130" s="55" t="s">
+      <c r="I130" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="J130" s="52" t="s">
+      <c r="J130" s="83" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A131" s="73"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="56"/>
+      <c r="B131" s="56"/>
       <c r="C131" s="17">
         <v>12211554</v>
       </c>
@@ -7048,14 +7048,14 @@
       <c r="F131" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="53"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="79"/>
     </row>
     <row r="132" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A132" s="73"/>
-      <c r="B132" s="73"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="56"/>
       <c r="C132" s="17">
         <v>12202181</v>
       </c>
@@ -7068,14 +7068,14 @@
       <c r="F132" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="54"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="80"/>
     </row>
     <row r="133" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A133" s="73"/>
-      <c r="B133" s="73" t="s">
+      <c r="A133" s="56"/>
+      <c r="B133" s="56" t="s">
         <v>382</v>
       </c>
       <c r="C133" s="30">
@@ -7090,22 +7090,22 @@
       <c r="F133" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="G133" s="55" t="s">
+      <c r="G133" s="70" t="s">
         <v>518</v>
       </c>
-      <c r="H133" s="55" t="s">
+      <c r="H133" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="I133" s="55" t="s">
+      <c r="I133" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="J133" s="52" t="s">
+      <c r="J133" s="83" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A134" s="73"/>
-      <c r="B134" s="73"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="56"/>
       <c r="C134" s="17">
         <v>12181695</v>
       </c>
@@ -7118,14 +7118,14 @@
       <c r="F134" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="53"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="79"/>
     </row>
     <row r="135" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A135" s="73"/>
-      <c r="B135" s="73"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="56"/>
       <c r="C135" s="17">
         <v>12174818</v>
       </c>
@@ -7138,14 +7138,14 @@
       <c r="F135" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="54"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="80"/>
     </row>
     <row r="136" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A136" s="73"/>
-      <c r="B136" s="73" t="s">
+      <c r="A136" s="56"/>
+      <c r="B136" s="56" t="s">
         <v>383</v>
       </c>
       <c r="C136" s="30">
@@ -7160,22 +7160,22 @@
       <c r="F136" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="55" t="s">
+      <c r="G136" s="70" t="s">
         <v>518</v>
       </c>
-      <c r="H136" s="55" t="s">
+      <c r="H136" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="I136" s="55" t="s">
+      <c r="I136" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="J136" s="52" t="s">
+      <c r="J136" s="83" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A137" s="73"/>
-      <c r="B137" s="73"/>
+      <c r="A137" s="56"/>
+      <c r="B137" s="56"/>
       <c r="C137" s="17">
         <v>12194702</v>
       </c>
@@ -7188,14 +7188,14 @@
       <c r="F137" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="G137" s="56"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="53"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="71"/>
+      <c r="J137" s="79"/>
     </row>
     <row r="138" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A138" s="73"/>
-      <c r="B138" s="73"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="56"/>
       <c r="C138" s="17">
         <v>12191602</v>
       </c>
@@ -7208,14 +7208,14 @@
       <c r="F138" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
-      <c r="J138" s="54"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="80"/>
     </row>
     <row r="139" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A139" s="73"/>
-      <c r="B139" s="73" t="s">
+      <c r="A139" s="56"/>
+      <c r="B139" s="56" t="s">
         <v>384</v>
       </c>
       <c r="C139" s="30">
@@ -7230,22 +7230,22 @@
       <c r="F139" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="G139" s="55" t="s">
+      <c r="G139" s="70" t="s">
         <v>518</v>
       </c>
-      <c r="H139" s="55" t="s">
+      <c r="H139" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="I139" s="55" t="s">
+      <c r="I139" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="J139" s="52" t="s">
+      <c r="J139" s="83" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A140" s="73"/>
-      <c r="B140" s="73"/>
+      <c r="A140" s="56"/>
+      <c r="B140" s="56"/>
       <c r="C140" s="17">
         <v>12171670</v>
       </c>
@@ -7258,14 +7258,14 @@
       <c r="F140" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="G140" s="56"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="53"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="79"/>
     </row>
     <row r="141" spans="1:10" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A141" s="76"/>
-      <c r="B141" s="76"/>
+      <c r="A141" s="69"/>
+      <c r="B141" s="69"/>
       <c r="C141" s="39">
         <v>12191667</v>
       </c>
@@ -7278,10 +7278,10 @@
       <c r="F141" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="54"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="80"/>
     </row>
     <row r="142" spans="1:10" ht="17.5" customHeight="1" thickTop="1">
       <c r="A142" s="23" t="s">
@@ -7290,65 +7290,191 @@
       <c r="B142" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="C142" s="58" t="s">
+      <c r="C142" s="89" t="s">
         <v>713</v>
       </c>
-      <c r="D142" s="59"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="58" t="s">
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="91"/>
+      <c r="G142" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="H142" s="59"/>
-      <c r="I142" s="59"/>
-      <c r="J142" s="60"/>
+      <c r="H142" s="90"/>
+      <c r="I142" s="90"/>
+      <c r="J142" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A30:A61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="I136:I138"/>
+    <mergeCell ref="H136:H138"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="J139:J141"/>
+    <mergeCell ref="I139:I141"/>
+    <mergeCell ref="H139:H141"/>
+    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="I121:I123"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="I127:I129"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="A121:A141"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="A62:A96"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
     <mergeCell ref="A97:A120"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
@@ -7373,176 +7499,50 @@
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="A121:A141"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A62:A96"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="G112:G114"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="G115:G117"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="J121:J123"/>
-    <mergeCell ref="I121:I123"/>
-    <mergeCell ref="H121:H123"/>
-    <mergeCell ref="G121:G123"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="I127:I129"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="J136:J138"/>
-    <mergeCell ref="I136:I138"/>
-    <mergeCell ref="H136:H138"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="J139:J141"/>
-    <mergeCell ref="I139:I141"/>
-    <mergeCell ref="H139:H141"/>
-    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A30:A61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7779,10 +7779,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="9">
@@ -7798,8 +7798,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="9">
         <v>12191702</v>
       </c>
@@ -7813,8 +7813,8 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="9">
         <v>12191664</v>
       </c>
@@ -7828,8 +7828,8 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="9">
@@ -7845,8 +7845,8 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="9">
         <v>12171696</v>
       </c>
@@ -7860,8 +7860,8 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="9">
@@ -7877,8 +7877,8 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="9">
         <v>12171571</v>
       </c>
@@ -7892,8 +7892,8 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="9">
         <v>12181568</v>
       </c>
@@ -7907,8 +7907,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="9">
@@ -7924,8 +7924,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="9">
         <v>12162065</v>
       </c>
@@ -7939,8 +7939,8 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9">
         <v>12181624</v>
       </c>
@@ -7954,8 +7954,8 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="9">
@@ -7971,8 +7971,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="9">
         <v>12193075</v>
       </c>
@@ -7986,8 +7986,8 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="9">
         <v>12192154</v>
       </c>
@@ -8001,8 +8001,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="9">
@@ -8018,8 +8018,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="9">
         <v>12191609</v>
       </c>
@@ -8033,8 +8033,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="9">
         <v>12192383</v>
       </c>
@@ -8048,10 +8048,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="92" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="10">
@@ -8067,8 +8067,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="9">
         <v>12195035</v>
       </c>
@@ -8082,8 +8082,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="9">
         <v>12191707</v>
       </c>
@@ -8097,8 +8097,8 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="9">
@@ -8114,8 +8114,8 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="9">
         <v>12171686</v>
       </c>
@@ -8129,8 +8129,8 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="9">
         <v>12181649</v>
       </c>
@@ -8144,8 +8144,8 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="9">
@@ -8161,8 +8161,8 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="9">
         <v>12193203</v>
       </c>
@@ -8176,8 +8176,8 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="9">
         <v>12181572</v>
       </c>
@@ -8191,8 +8191,8 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="9">
@@ -8208,8 +8208,8 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="9">
         <v>12131533</v>
       </c>
@@ -8223,8 +8223,8 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="9">
         <v>12123630</v>
       </c>
@@ -8238,10 +8238,10 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="92" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="6">
@@ -8257,8 +8257,8 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="7">
         <v>12191704</v>
       </c>
@@ -8272,8 +8272,8 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="7">
         <v>12181616</v>
       </c>
@@ -8287,8 +8287,8 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="7">
@@ -8304,8 +8304,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="7">
         <v>12192146</v>
       </c>
@@ -8319,8 +8319,8 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="7">
         <v>12171579</v>
       </c>
@@ -8334,8 +8334,8 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="7">
@@ -8351,8 +8351,8 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="7">
         <v>12181569</v>
       </c>
@@ -8366,8 +8366,8 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="7">
         <v>12184617</v>
       </c>
@@ -8381,8 +8381,8 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="93"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="7">
         <v>12184619</v>
       </c>
@@ -8396,8 +8396,8 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="93"/>
-      <c r="B43" s="93" t="s">
+      <c r="A43" s="92"/>
+      <c r="B43" s="92" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="7">
@@ -8413,8 +8413,8 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="7">
         <v>12193267</v>
       </c>
@@ -8428,8 +8428,8 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="93"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="7">
         <v>12192558</v>
       </c>
@@ -8443,8 +8443,8 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="93"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="7">
         <v>12181721</v>
       </c>
@@ -8458,8 +8458,8 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="93"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="92"/>
+      <c r="B47" s="92" t="s">
         <v>112</v>
       </c>
       <c r="C47" s="7">
@@ -8475,8 +8475,8 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="93"/>
-      <c r="B48" s="93"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="7">
         <v>12191601</v>
       </c>
@@ -8490,8 +8490,8 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="93"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="7">
         <v>12153295</v>
       </c>
@@ -8505,8 +8505,8 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="7">
         <v>12171665</v>
       </c>
@@ -8520,10 +8520,10 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="92" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="10">
@@ -8539,8 +8539,8 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="10">
         <v>12181641</v>
       </c>
@@ -8554,8 +8554,8 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="93"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="10">
         <v>12183881</v>
       </c>
@@ -8569,8 +8569,8 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="93"/>
-      <c r="B54" s="93" t="s">
+      <c r="A54" s="92"/>
+      <c r="B54" s="92" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="10">
@@ -8586,8 +8586,8 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="93"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="10">
         <v>12190613</v>
       </c>
@@ -8601,8 +8601,8 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="93"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="10">
         <v>12191613</v>
       </c>
@@ -8616,8 +8616,8 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="93"/>
-      <c r="B57" s="93" t="s">
+      <c r="A57" s="92"/>
+      <c r="B57" s="92" t="s">
         <v>136</v>
       </c>
       <c r="C57" s="10">
@@ -8633,8 +8633,8 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="93"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="10">
         <v>12171615</v>
       </c>
@@ -8648,8 +8648,8 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="93"/>
-      <c r="B59" s="93"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="10">
         <v>12161565</v>
       </c>
@@ -8663,8 +8663,8 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93" t="s">
+      <c r="A60" s="92"/>
+      <c r="B60" s="92" t="s">
         <v>143</v>
       </c>
       <c r="C60" s="10">
@@ -8680,8 +8680,8 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="10">
         <v>12173414</v>
       </c>
@@ -8695,8 +8695,8 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="10">
         <v>12172844</v>
       </c>
@@ -8710,8 +8710,8 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93" t="s">
+      <c r="A63" s="92"/>
+      <c r="B63" s="92" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="10">
@@ -8727,8 +8727,8 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="93"/>
-      <c r="B64" s="93"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="10">
         <v>12171613</v>
       </c>
@@ -8742,8 +8742,8 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="93"/>
-      <c r="B65" s="93"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="10">
         <v>12171735</v>
       </c>
@@ -8757,8 +8757,8 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="93"/>
-      <c r="B66" s="93" t="s">
+      <c r="A66" s="92"/>
+      <c r="B66" s="92" t="s">
         <v>157</v>
       </c>
       <c r="C66" s="10">
@@ -8774,8 +8774,8 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="93"/>
-      <c r="B67" s="93"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="10">
         <v>12181706</v>
       </c>
@@ -8789,8 +8789,8 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="10">
         <v>12183481</v>
       </c>
@@ -8804,8 +8804,8 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="93"/>
-      <c r="B69" s="93" t="s">
+      <c r="A69" s="92"/>
+      <c r="B69" s="92" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="10">
@@ -8821,8 +8821,8 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="93"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="10">
         <v>12171629</v>
       </c>
@@ -8836,8 +8836,8 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="93"/>
-      <c r="B71" s="93"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="10">
         <v>12181604</v>
       </c>
@@ -8851,8 +8851,8 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93" t="s">
+      <c r="A72" s="92"/>
+      <c r="B72" s="92" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="9">
@@ -8868,8 +8868,8 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="9">
         <v>12171966</v>
       </c>
@@ -8883,8 +8883,8 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="9">
         <v>12171711</v>
       </c>
@@ -8898,8 +8898,8 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="9">
         <v>12200197</v>
       </c>
@@ -8914,6 +8914,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A51:A75"/>
     <mergeCell ref="B51:B53"/>
@@ -8929,18 +8941,6 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
